--- a/Code/Results/Cases/Case_4_174/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_174/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9875919737322419</v>
+        <v>1.025010761346032</v>
       </c>
       <c r="D2">
-        <v>1.007809302694737</v>
+        <v>1.029673052772681</v>
       </c>
       <c r="E2">
-        <v>0.9958538515607303</v>
+        <v>1.028637437892254</v>
       </c>
       <c r="F2">
-        <v>0.9959793463233541</v>
+        <v>1.034984257447097</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037755020852443</v>
+        <v>1.030812905386939</v>
       </c>
       <c r="J2">
-        <v>1.010150248126992</v>
+        <v>1.03018217148517</v>
       </c>
       <c r="K2">
-        <v>1.019160903167942</v>
+        <v>1.032486282148583</v>
       </c>
       <c r="L2">
-        <v>1.007371252641945</v>
+        <v>1.03145367510015</v>
       </c>
       <c r="M2">
-        <v>1.007494980903457</v>
+        <v>1.037782163779857</v>
       </c>
       <c r="N2">
-        <v>1.011584777345185</v>
+        <v>1.03164514833223</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9929702403736322</v>
+        <v>1.026123957834818</v>
       </c>
       <c r="D3">
-        <v>1.011740371944509</v>
+        <v>1.030498944535342</v>
       </c>
       <c r="E3">
-        <v>1.000706952787856</v>
+        <v>1.029698296874913</v>
       </c>
       <c r="F3">
-        <v>1.00193544095449</v>
+        <v>1.036280304298826</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03912071722171</v>
+        <v>1.031024796345531</v>
       </c>
       <c r="J3">
-        <v>1.013654395653548</v>
+        <v>1.03093367399596</v>
       </c>
       <c r="K3">
-        <v>1.022225204473934</v>
+        <v>1.033120320915411</v>
       </c>
       <c r="L3">
-        <v>1.011330796005925</v>
+        <v>1.032321829617442</v>
       </c>
       <c r="M3">
-        <v>1.01254361720711</v>
+        <v>1.03888621682905</v>
       </c>
       <c r="N3">
-        <v>1.015093901163161</v>
+        <v>1.03239771806278</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9963678492516435</v>
+        <v>1.026844189904897</v>
       </c>
       <c r="D4">
-        <v>1.014225703566099</v>
+        <v>1.031033052556245</v>
       </c>
       <c r="E4">
-        <v>1.003778675767736</v>
+        <v>1.030385034363529</v>
       </c>
       <c r="F4">
-        <v>1.005699739096421</v>
+        <v>1.037118987113625</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039971905581484</v>
+        <v>1.031160423402204</v>
       </c>
       <c r="J4">
-        <v>1.015864924378517</v>
+        <v>1.031419348842769</v>
       </c>
       <c r="K4">
-        <v>1.024155415996163</v>
+        <v>1.033529643392231</v>
       </c>
       <c r="L4">
-        <v>1.013831708438413</v>
+        <v>1.032883282161468</v>
       </c>
       <c r="M4">
-        <v>1.015729856614005</v>
+        <v>1.039600125297586</v>
       </c>
       <c r="N4">
-        <v>1.01730756909247</v>
+        <v>1.032884082623579</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9977773056035028</v>
+        <v>1.02714695734478</v>
       </c>
       <c r="D5">
-        <v>1.015257105867146</v>
+        <v>1.031257519973514</v>
       </c>
       <c r="E5">
-        <v>1.005054304852983</v>
+        <v>1.030673808987488</v>
       </c>
       <c r="F5">
-        <v>1.00726173449367</v>
+        <v>1.0374715841988</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040322189903292</v>
+        <v>1.031217086615875</v>
       </c>
       <c r="J5">
-        <v>1.016781139821512</v>
+        <v>1.031623383981492</v>
       </c>
       <c r="K5">
-        <v>1.024954740758506</v>
+        <v>1.033701497015113</v>
       </c>
       <c r="L5">
-        <v>1.014869029853672</v>
+        <v>1.033119245153202</v>
       </c>
       <c r="M5">
-        <v>1.017050878020565</v>
+        <v>1.039900137247266</v>
       </c>
       <c r="N5">
-        <v>1.018225085666485</v>
+        <v>1.033088407515602</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.998012875039515</v>
+        <v>1.027197792300881</v>
       </c>
       <c r="D6">
-        <v>1.015429510173201</v>
+        <v>1.031295204842994</v>
       </c>
       <c r="E6">
-        <v>1.005267585847695</v>
+        <v>1.030722299649635</v>
       </c>
       <c r="F6">
-        <v>1.00752282406266</v>
+        <v>1.03753078772697</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040380567483209</v>
+        <v>1.031226579837942</v>
       </c>
       <c r="J6">
-        <v>1.016934223536364</v>
+        <v>1.031657634032904</v>
       </c>
       <c r="K6">
-        <v>1.025088251957726</v>
+        <v>1.03373033877451</v>
       </c>
       <c r="L6">
-        <v>1.015042392380066</v>
+        <v>1.033158860190772</v>
       </c>
       <c r="M6">
-        <v>1.017271622741146</v>
+        <v>1.039950503866045</v>
       </c>
       <c r="N6">
-        <v>1.018378386777771</v>
+        <v>1.033122706206015</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9963867556486627</v>
+        <v>1.026848235568017</v>
       </c>
       <c r="D7">
-        <v>1.014239537305735</v>
+        <v>1.031036052182155</v>
       </c>
       <c r="E7">
-        <v>1.003795781685422</v>
+        <v>1.030388892707706</v>
       </c>
       <c r="F7">
-        <v>1.005720689945298</v>
+        <v>1.03712369847244</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039976615493924</v>
+        <v>1.031161181931334</v>
       </c>
       <c r="J7">
-        <v>1.015877217656309</v>
+        <v>1.031422075729872</v>
       </c>
       <c r="K7">
-        <v>1.024166143716885</v>
+        <v>1.033531940594741</v>
       </c>
       <c r="L7">
-        <v>1.013845623686147</v>
+        <v>1.032886435391437</v>
       </c>
       <c r="M7">
-        <v>1.015747579715882</v>
+        <v>1.039604134522514</v>
       </c>
       <c r="N7">
-        <v>1.017319879828126</v>
+        <v>1.032886813383174</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9894271928094219</v>
+        <v>1.025386988669831</v>
       </c>
       <c r="D8">
-        <v>1.009150236108205</v>
+        <v>1.029952228725643</v>
       </c>
       <c r="E8">
-        <v>0.9975086040528124</v>
+        <v>1.028995900285317</v>
       </c>
       <c r="F8">
-        <v>0.9980114039842226</v>
+        <v>1.03542225256963</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038223436944074</v>
+        <v>1.03088482151839</v>
       </c>
       <c r="J8">
-        <v>1.011346599223532</v>
+        <v>1.030436269290988</v>
       </c>
       <c r="K8">
-        <v>1.020207671899251</v>
+        <v>1.032700753900911</v>
       </c>
       <c r="L8">
-        <v>1.008722428975927</v>
+        <v>1.031747134719611</v>
       </c>
       <c r="M8">
-        <v>1.009218379617006</v>
+        <v>1.03815538560631</v>
       </c>
       <c r="N8">
-        <v>1.012782827397506</v>
+        <v>1.031899606986074</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9764906625249543</v>
+        <v>1.022811416673853</v>
       </c>
       <c r="D9">
-        <v>0.9997097035660257</v>
+        <v>1.028040099978976</v>
       </c>
       <c r="E9">
-        <v>0.9858714120545788</v>
+        <v>1.02654347076985</v>
       </c>
       <c r="F9">
-        <v>0.9836933190600936</v>
+        <v>1.032424412683032</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03487412836573</v>
+        <v>1.030386497349243</v>
       </c>
       <c r="J9">
-        <v>1.002901811626818</v>
+        <v>1.028694553941567</v>
       </c>
       <c r="K9">
-        <v>1.012807492383752</v>
+        <v>1.031228864506197</v>
       </c>
       <c r="L9">
-        <v>0.9991979518956178</v>
+        <v>1.029737208726809</v>
       </c>
       <c r="M9">
-        <v>0.9970566198852053</v>
+        <v>1.035598698774354</v>
       </c>
       <c r="N9">
-        <v>1.004326047233773</v>
+        <v>1.030155418201078</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9673513662353161</v>
+        <v>1.021093844462891</v>
       </c>
       <c r="D10">
-        <v>0.9930592493832695</v>
+        <v>1.026763799670111</v>
       </c>
       <c r="E10">
-        <v>0.9776873342195631</v>
+        <v>1.024909958425509</v>
       </c>
       <c r="F10">
-        <v>0.9735842015068312</v>
+        <v>1.030425947166272</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032449720607345</v>
+        <v>1.030046650855593</v>
       </c>
       <c r="J10">
-        <v>0.9969230123767212</v>
+        <v>1.0275302853801</v>
       </c>
       <c r="K10">
-        <v>1.007554962317266</v>
+        <v>1.03024272595997</v>
       </c>
       <c r="L10">
-        <v>0.9924714857899772</v>
+        <v>1.028395654055341</v>
       </c>
       <c r="M10">
-        <v>0.9884473627305563</v>
+        <v>1.03389158010796</v>
       </c>
       <c r="N10">
-        <v>0.9983387574029636</v>
+        <v>1.028989496244711</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9632561995039077</v>
+        <v>1.020349974927385</v>
       </c>
       <c r="D11">
-        <v>0.9900852005528212</v>
+        <v>1.026210778149663</v>
       </c>
       <c r="E11">
-        <v>0.9740299342751952</v>
+        <v>1.024202961615616</v>
       </c>
       <c r="F11">
-        <v>0.9690554412932623</v>
+        <v>1.029560583534112</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031350320088884</v>
+        <v>1.029897682249558</v>
       </c>
       <c r="J11">
-        <v>0.9942416869164462</v>
+        <v>1.027025394884486</v>
       </c>
       <c r="K11">
-        <v>1.005196549386417</v>
+        <v>1.029814555434935</v>
       </c>
       <c r="L11">
-        <v>0.9894588084989413</v>
+        <v>1.027814356872064</v>
       </c>
       <c r="M11">
-        <v>0.9845855125178663</v>
+        <v>1.033151724393654</v>
       </c>
       <c r="N11">
-        <v>0.995653624152983</v>
+        <v>1.028483888746681</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9617128946709587</v>
+        <v>1.02007364460503</v>
       </c>
       <c r="D12">
-        <v>0.9889654158072185</v>
+        <v>1.026005304679156</v>
       </c>
       <c r="E12">
-        <v>0.9726531544246004</v>
+        <v>1.023940399388156</v>
       </c>
       <c r="F12">
-        <v>0.9673488287948064</v>
+        <v>1.029239144172345</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030934105166011</v>
+        <v>1.029842076125353</v>
       </c>
       <c r="J12">
-        <v>0.9932309179962486</v>
+        <v>1.026837741920234</v>
       </c>
       <c r="K12">
-        <v>1.004307119096322</v>
+        <v>1.029655338176648</v>
       </c>
       <c r="L12">
-        <v>0.9883237246901974</v>
+        <v>1.027598376996463</v>
       </c>
       <c r="M12">
-        <v>0.9831294978889522</v>
+        <v>1.032876807456868</v>
       </c>
       <c r="N12">
-        <v>0.9946414198249822</v>
+        <v>1.028295969293696</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9620449676003505</v>
+        <v>1.020132919511595</v>
       </c>
       <c r="D13">
-        <v>0.9892063119066526</v>
+        <v>1.026049382004774</v>
       </c>
       <c r="E13">
-        <v>0.9729493248467986</v>
+        <v>1.023996717726187</v>
       </c>
       <c r="F13">
-        <v>0.9677160371282683</v>
+        <v>1.029308094263726</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031023746578323</v>
+        <v>1.029854016164388</v>
       </c>
       <c r="J13">
-        <v>0.9934484169214302</v>
+        <v>1.026877999296578</v>
       </c>
       <c r="K13">
-        <v>1.004498525184828</v>
+        <v>1.029689498775783</v>
       </c>
       <c r="L13">
-        <v>0.9885679471021719</v>
+        <v>1.027644708151711</v>
       </c>
       <c r="M13">
-        <v>0.9834428175347487</v>
+        <v>1.032935782703851</v>
       </c>
       <c r="N13">
-        <v>0.9948592276235849</v>
+        <v>1.028336283840132</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.963129090887866</v>
+        <v>1.020327133876767</v>
       </c>
       <c r="D14">
-        <v>0.9899929522202912</v>
+        <v>1.026193794806015</v>
       </c>
       <c r="E14">
-        <v>0.9739165089348775</v>
+        <v>1.024181257168929</v>
       </c>
       <c r="F14">
-        <v>0.9689148807866504</v>
+        <v>1.029534013368402</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031316078152524</v>
+        <v>1.029893091391069</v>
       </c>
       <c r="J14">
-        <v>0.9941584440456603</v>
+        <v>1.027009885765238</v>
       </c>
       <c r="K14">
-        <v>1.005123307175305</v>
+        <v>1.029801398072911</v>
       </c>
       <c r="L14">
-        <v>0.989365315504066</v>
+        <v>1.027796505141568</v>
       </c>
       <c r="M14">
-        <v>0.9844656062403853</v>
+        <v>1.033129001758393</v>
       </c>
       <c r="N14">
-        <v>0.9955702630677727</v>
+        <v>1.028468357602705</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9637940697886849</v>
+        <v>1.020446792521311</v>
       </c>
       <c r="D15">
-        <v>0.9904755988838945</v>
+        <v>1.026282764782581</v>
       </c>
       <c r="E15">
-        <v>0.9745099662269326</v>
+        <v>1.024294964325012</v>
       </c>
       <c r="F15">
-        <v>0.969650237949961</v>
+        <v>1.029673208875705</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031495140853953</v>
+        <v>1.029917130806397</v>
       </c>
       <c r="J15">
-        <v>0.9945939246052575</v>
+        <v>1.027091130221042</v>
       </c>
       <c r="K15">
-        <v>1.005506454207368</v>
+        <v>1.029870319631845</v>
       </c>
       <c r="L15">
-        <v>0.9898544431905004</v>
+        <v>1.027890024271757</v>
       </c>
       <c r="M15">
-        <v>0.9850928795192313</v>
+        <v>1.033248036870955</v>
       </c>
       <c r="N15">
-        <v>0.9960063620597147</v>
+        <v>1.028549717434955</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9676201229767564</v>
+        <v>1.021143209348719</v>
       </c>
       <c r="D16">
-        <v>0.9932545629953481</v>
+        <v>1.026800493958978</v>
       </c>
       <c r="E16">
-        <v>0.9779275707774651</v>
+        <v>1.024956886239272</v>
       </c>
       <c r="F16">
-        <v>0.9738814301323576</v>
+        <v>1.030483377970121</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032521605998511</v>
+        <v>1.030056499200577</v>
       </c>
       <c r="J16">
-        <v>0.9970989388984404</v>
+        <v>1.027563777334712</v>
       </c>
       <c r="K16">
-        <v>1.00770964648796</v>
+        <v>1.030271117619957</v>
       </c>
       <c r="L16">
-        <v>0.9926692349986516</v>
+        <v>1.028434224436823</v>
       </c>
       <c r="M16">
-        <v>0.9887007197667391</v>
+        <v>1.0339406677657</v>
       </c>
       <c r="N16">
-        <v>0.998514933760523</v>
+        <v>1.02902303576174</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9699822146980385</v>
+        <v>1.021580012085836</v>
       </c>
       <c r="D17">
-        <v>0.994971851111489</v>
+        <v>1.027125151164205</v>
       </c>
       <c r="E17">
-        <v>0.9800401152794885</v>
+        <v>1.025372178673505</v>
       </c>
       <c r="F17">
-        <v>0.976493864463636</v>
+        <v>1.030991569862687</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033151929538677</v>
+        <v>1.030143435829492</v>
       </c>
       <c r="J17">
-        <v>0.9986448934098732</v>
+        <v>1.027860053814259</v>
       </c>
       <c r="K17">
-        <v>1.00906862013301</v>
+        <v>1.030522215094061</v>
       </c>
       <c r="L17">
-        <v>0.994407404845005</v>
+        <v>1.028775480428284</v>
       </c>
       <c r="M17">
-        <v>0.990926988523345</v>
+        <v>1.034374958082238</v>
       </c>
       <c r="N17">
-        <v>1.000063083704685</v>
+        <v>1.029319732987872</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.971346794689493</v>
+        <v>1.021834777421919</v>
       </c>
       <c r="D18">
-        <v>0.9959644779493239</v>
+        <v>1.027314482051774</v>
       </c>
       <c r="E18">
-        <v>0.9812614476722838</v>
+        <v>1.025614443126939</v>
       </c>
       <c r="F18">
-        <v>0.9780031622465343</v>
+        <v>1.031287988331303</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033514827856316</v>
+        <v>1.030193969595375</v>
       </c>
       <c r="J18">
-        <v>0.9995377668559784</v>
+        <v>1.028032794124933</v>
       </c>
       <c r="K18">
-        <v>1.009853235248917</v>
+        <v>1.030668563530098</v>
       </c>
       <c r="L18">
-        <v>0.9954116669739885</v>
+        <v>1.028974491204859</v>
       </c>
       <c r="M18">
-        <v>0.9922127086722643</v>
+        <v>1.034628208538501</v>
       </c>
       <c r="N18">
-        <v>1.000957225133498</v>
+        <v>1.0294927186096</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9718098868773598</v>
+        <v>1.021921643439301</v>
       </c>
       <c r="D19">
-        <v>0.9963014314485045</v>
+        <v>1.027379032866259</v>
       </c>
       <c r="E19">
-        <v>0.9816760794456234</v>
+        <v>1.02569705439965</v>
       </c>
       <c r="F19">
-        <v>0.9785153842124718</v>
+        <v>1.0313890592318</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033637771035483</v>
+        <v>1.030211170643616</v>
       </c>
       <c r="J19">
-        <v>0.9998407379408447</v>
+        <v>1.0280916817918</v>
       </c>
       <c r="K19">
-        <v>1.010119425810847</v>
+        <v>1.030718445502041</v>
       </c>
       <c r="L19">
-        <v>0.9957524980616392</v>
+        <v>1.029042342305345</v>
       </c>
       <c r="M19">
-        <v>0.9926489717370457</v>
+        <v>1.034714549652737</v>
       </c>
       <c r="N19">
-        <v>1.001260626472056</v>
+        <v>1.029551689903709</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9697301589528899</v>
+        <v>1.021533148777545</v>
       </c>
       <c r="D20">
-        <v>0.9947885435664625</v>
+        <v>1.027090322261634</v>
       </c>
       <c r="E20">
-        <v>0.9798145927464477</v>
+        <v>1.02532761848401</v>
       </c>
       <c r="F20">
-        <v>0.9762150854600209</v>
+        <v>1.030937045830918</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03308479674256</v>
+        <v>1.030134126443914</v>
       </c>
       <c r="J20">
-        <v>0.9984799494389209</v>
+        <v>1.027828273682101</v>
       </c>
       <c r="K20">
-        <v>1.008923653348825</v>
+        <v>1.030495286348311</v>
       </c>
       <c r="L20">
-        <v>0.9942219138600676</v>
+        <v>1.028738870833708</v>
       </c>
       <c r="M20">
-        <v>0.9906894673279577</v>
+        <v>1.034328369449033</v>
       </c>
       <c r="N20">
-        <v>0.999897905494375</v>
+        <v>1.02928790772428</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9628104683608447</v>
+        <v>1.020269943263861</v>
       </c>
       <c r="D21">
-        <v>0.9897617305871209</v>
+        <v>1.026151270401866</v>
       </c>
       <c r="E21">
-        <v>0.9736322114223203</v>
+        <v>1.024126913588722</v>
       </c>
       <c r="F21">
-        <v>0.9685625398488618</v>
+        <v>1.029467485975322</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031230213800491</v>
+        <v>1.029881592236041</v>
       </c>
       <c r="J21">
-        <v>0.9939497752110699</v>
+        <v>1.026971051645011</v>
       </c>
       <c r="K21">
-        <v>1.004939701325773</v>
+        <v>1.029768451371889</v>
       </c>
       <c r="L21">
-        <v>0.9891309617513023</v>
+        <v>1.027751806380705</v>
       </c>
       <c r="M21">
-        <v>0.9841650274841494</v>
+        <v>1.033072106383863</v>
       </c>
       <c r="N21">
-        <v>0.9953612978995025</v>
+        <v>1.028429468333572</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9583306360740643</v>
+        <v>1.019475575843263</v>
       </c>
       <c r="D22">
-        <v>0.9865133491425028</v>
+        <v>1.025560523285968</v>
       </c>
       <c r="E22">
-        <v>0.9696387949479933</v>
+        <v>1.023372259242807</v>
       </c>
       <c r="F22">
-        <v>0.9636087886044284</v>
+        <v>1.028543486457861</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030018531488882</v>
+        <v>1.029721236963201</v>
       </c>
       <c r="J22">
-        <v>0.9910153002680459</v>
+        <v>1.026431421271724</v>
       </c>
       <c r="K22">
-        <v>1.002356798780569</v>
+        <v>1.029310444814105</v>
       </c>
       <c r="L22">
-        <v>0.9858366996522787</v>
+        <v>1.027130850947126</v>
       </c>
       <c r="M22">
-        <v>0.9799373565680015</v>
+        <v>1.032281655159392</v>
       </c>
       <c r="N22">
-        <v>0.9924226556654703</v>
+        <v>1.027889071623259</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9607182517855528</v>
+        <v>1.019896698848025</v>
       </c>
       <c r="D23">
-        <v>0.9882440298596135</v>
+        <v>1.025873720697921</v>
       </c>
       <c r="E23">
-        <v>0.971766282345119</v>
+        <v>1.023772289895949</v>
       </c>
       <c r="F23">
-        <v>0.9662489564848877</v>
+        <v>1.029033319675924</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030665334082189</v>
+        <v>1.029806393873114</v>
       </c>
       <c r="J23">
-        <v>0.9925794169400044</v>
+        <v>1.026717552450714</v>
       </c>
       <c r="K23">
-        <v>1.003733722724543</v>
+        <v>1.029553339275255</v>
       </c>
       <c r="L23">
-        <v>0.987592262468554</v>
+        <v>1.02746006452233</v>
       </c>
       <c r="M23">
-        <v>0.982190931641292</v>
+        <v>1.032700744825745</v>
       </c>
       <c r="N23">
-        <v>0.9939889935625095</v>
+        <v>1.028175609141343</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9698440927408536</v>
+        <v>1.021554324333112</v>
       </c>
       <c r="D24">
-        <v>0.9948714002194203</v>
+        <v>1.027106060055066</v>
       </c>
       <c r="E24">
-        <v>0.9799165302039554</v>
+        <v>1.025347753218218</v>
       </c>
       <c r="F24">
-        <v>0.9763410983494744</v>
+        <v>1.03096168289715</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033115145840198</v>
+        <v>1.030138333494843</v>
       </c>
       <c r="J24">
-        <v>0.9985545078187754</v>
+        <v>1.027842633980359</v>
       </c>
       <c r="K24">
-        <v>1.008989182421339</v>
+        <v>1.030507454636685</v>
       </c>
       <c r="L24">
-        <v>0.9943057587917656</v>
+        <v>1.028755413250985</v>
       </c>
       <c r="M24">
-        <v>0.9907968324594819</v>
+        <v>1.034349421043351</v>
       </c>
       <c r="N24">
-        <v>0.9999725697556809</v>
+        <v>1.02930228841581</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9799209241050115</v>
+        <v>1.023477350669074</v>
       </c>
       <c r="D25">
-        <v>1.002210133530732</v>
+        <v>1.028534703451409</v>
       </c>
       <c r="E25">
-        <v>0.9889510257440836</v>
+        <v>1.027177225766796</v>
       </c>
       <c r="F25">
-        <v>0.987488698774118</v>
+        <v>1.033199400394412</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035772452257512</v>
+        <v>1.03051667064221</v>
       </c>
       <c r="J25">
-        <v>1.005143453295102</v>
+        <v>1.029145377459356</v>
       </c>
       <c r="K25">
-        <v>1.014774236635666</v>
+        <v>1.031610241926529</v>
       </c>
       <c r="L25">
-        <v>1.001723319047198</v>
+        <v>1.030257102863308</v>
       </c>
       <c r="M25">
-        <v>1.000284392012225</v>
+        <v>1.036260125115098</v>
       </c>
       <c r="N25">
-        <v>1.006570872290347</v>
+        <v>1.030606881939973</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_174/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_174/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025010761346032</v>
+        <v>0.9875919737322424</v>
       </c>
       <c r="D2">
-        <v>1.029673052772681</v>
+        <v>1.007809302694737</v>
       </c>
       <c r="E2">
-        <v>1.028637437892254</v>
+        <v>0.9958538515607309</v>
       </c>
       <c r="F2">
-        <v>1.034984257447097</v>
+        <v>0.9959793463233542</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030812905386939</v>
+        <v>1.037755020852443</v>
       </c>
       <c r="J2">
-        <v>1.03018217148517</v>
+        <v>1.010150248126992</v>
       </c>
       <c r="K2">
-        <v>1.032486282148583</v>
+        <v>1.019160903167942</v>
       </c>
       <c r="L2">
-        <v>1.03145367510015</v>
+        <v>1.007371252641946</v>
       </c>
       <c r="M2">
-        <v>1.037782163779857</v>
+        <v>1.007494980903457</v>
       </c>
       <c r="N2">
-        <v>1.03164514833223</v>
+        <v>1.011584777345186</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026123957834818</v>
+        <v>0.9929702403736311</v>
       </c>
       <c r="D3">
-        <v>1.030498944535342</v>
+        <v>1.011740371944508</v>
       </c>
       <c r="E3">
-        <v>1.029698296874913</v>
+        <v>1.000706952787855</v>
       </c>
       <c r="F3">
-        <v>1.036280304298826</v>
+        <v>1.001935440954489</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031024796345531</v>
+        <v>1.039120717221709</v>
       </c>
       <c r="J3">
-        <v>1.03093367399596</v>
+        <v>1.013654395653547</v>
       </c>
       <c r="K3">
-        <v>1.033120320915411</v>
+        <v>1.022225204473933</v>
       </c>
       <c r="L3">
-        <v>1.032321829617442</v>
+        <v>1.011330796005923</v>
       </c>
       <c r="M3">
-        <v>1.03888621682905</v>
+        <v>1.012543617207109</v>
       </c>
       <c r="N3">
-        <v>1.03239771806278</v>
+        <v>1.015093901163159</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026844189904897</v>
+        <v>0.9963678492516431</v>
       </c>
       <c r="D4">
-        <v>1.031033052556245</v>
+        <v>1.014225703566099</v>
       </c>
       <c r="E4">
-        <v>1.030385034363529</v>
+        <v>1.003778675767736</v>
       </c>
       <c r="F4">
-        <v>1.037118987113625</v>
+        <v>1.00569973909642</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031160423402204</v>
+        <v>1.039971905581484</v>
       </c>
       <c r="J4">
-        <v>1.031419348842769</v>
+        <v>1.015864924378516</v>
       </c>
       <c r="K4">
-        <v>1.033529643392231</v>
+        <v>1.024155415996162</v>
       </c>
       <c r="L4">
-        <v>1.032883282161468</v>
+        <v>1.013831708438413</v>
       </c>
       <c r="M4">
-        <v>1.039600125297586</v>
+        <v>1.015729856614005</v>
       </c>
       <c r="N4">
-        <v>1.032884082623579</v>
+        <v>1.017307569092469</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02714695734478</v>
+        <v>0.9977773056035035</v>
       </c>
       <c r="D5">
-        <v>1.031257519973514</v>
+        <v>1.015257105867146</v>
       </c>
       <c r="E5">
-        <v>1.030673808987488</v>
+        <v>1.005054304852983</v>
       </c>
       <c r="F5">
-        <v>1.0374715841988</v>
+        <v>1.007261734493671</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031217086615875</v>
+        <v>1.040322189903292</v>
       </c>
       <c r="J5">
-        <v>1.031623383981492</v>
+        <v>1.016781139821512</v>
       </c>
       <c r="K5">
-        <v>1.033701497015113</v>
+        <v>1.024954740758506</v>
       </c>
       <c r="L5">
-        <v>1.033119245153202</v>
+        <v>1.014869029853673</v>
       </c>
       <c r="M5">
-        <v>1.039900137247266</v>
+        <v>1.017050878020566</v>
       </c>
       <c r="N5">
-        <v>1.033088407515602</v>
+        <v>1.018225085666486</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027197792300881</v>
+        <v>0.9980128750395154</v>
       </c>
       <c r="D6">
-        <v>1.031295204842994</v>
+        <v>1.015429510173201</v>
       </c>
       <c r="E6">
-        <v>1.030722299649635</v>
+        <v>1.005267585847696</v>
       </c>
       <c r="F6">
-        <v>1.03753078772697</v>
+        <v>1.00752282406266</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031226579837942</v>
+        <v>1.040380567483209</v>
       </c>
       <c r="J6">
-        <v>1.031657634032904</v>
+        <v>1.016934223536364</v>
       </c>
       <c r="K6">
-        <v>1.03373033877451</v>
+        <v>1.025088251957726</v>
       </c>
       <c r="L6">
-        <v>1.033158860190772</v>
+        <v>1.015042392380067</v>
       </c>
       <c r="M6">
-        <v>1.039950503866045</v>
+        <v>1.017271622741147</v>
       </c>
       <c r="N6">
-        <v>1.033122706206015</v>
+        <v>1.018378386777772</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026848235568017</v>
+        <v>0.9963867556486635</v>
       </c>
       <c r="D7">
-        <v>1.031036052182155</v>
+        <v>1.014239537305736</v>
       </c>
       <c r="E7">
-        <v>1.030388892707706</v>
+        <v>1.003795781685423</v>
       </c>
       <c r="F7">
-        <v>1.03712369847244</v>
+        <v>1.005720689945299</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031161181931334</v>
+        <v>1.039976615493924</v>
       </c>
       <c r="J7">
-        <v>1.031422075729872</v>
+        <v>1.015877217656309</v>
       </c>
       <c r="K7">
-        <v>1.033531940594741</v>
+        <v>1.024166143716885</v>
       </c>
       <c r="L7">
-        <v>1.032886435391437</v>
+        <v>1.013845623686148</v>
       </c>
       <c r="M7">
-        <v>1.039604134522514</v>
+        <v>1.015747579715883</v>
       </c>
       <c r="N7">
-        <v>1.032886813383174</v>
+        <v>1.017319879828127</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025386988669831</v>
+        <v>0.9894271928094228</v>
       </c>
       <c r="D8">
-        <v>1.029952228725643</v>
+        <v>1.009150236108206</v>
       </c>
       <c r="E8">
-        <v>1.028995900285317</v>
+        <v>0.9975086040528129</v>
       </c>
       <c r="F8">
-        <v>1.03542225256963</v>
+        <v>0.9980114039842231</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03088482151839</v>
+        <v>1.038223436944074</v>
       </c>
       <c r="J8">
-        <v>1.030436269290988</v>
+        <v>1.011346599223533</v>
       </c>
       <c r="K8">
-        <v>1.032700753900911</v>
+        <v>1.020207671899251</v>
       </c>
       <c r="L8">
-        <v>1.031747134719611</v>
+        <v>1.008722428975927</v>
       </c>
       <c r="M8">
-        <v>1.03815538560631</v>
+        <v>1.009218379617006</v>
       </c>
       <c r="N8">
-        <v>1.031899606986074</v>
+        <v>1.012782827397507</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022811416673853</v>
+        <v>0.9764906625249549</v>
       </c>
       <c r="D9">
-        <v>1.028040099978976</v>
+        <v>0.9997097035660258</v>
       </c>
       <c r="E9">
-        <v>1.02654347076985</v>
+        <v>0.9858714120545792</v>
       </c>
       <c r="F9">
-        <v>1.032424412683032</v>
+        <v>0.9836933190600936</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030386497349243</v>
+        <v>1.03487412836573</v>
       </c>
       <c r="J9">
-        <v>1.028694553941567</v>
+        <v>1.002901811626818</v>
       </c>
       <c r="K9">
-        <v>1.031228864506197</v>
+        <v>1.012807492383752</v>
       </c>
       <c r="L9">
-        <v>1.029737208726809</v>
+        <v>0.9991979518956182</v>
       </c>
       <c r="M9">
-        <v>1.035598698774354</v>
+        <v>0.9970566198852054</v>
       </c>
       <c r="N9">
-        <v>1.030155418201078</v>
+        <v>1.004326047233774</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021093844462891</v>
+        <v>0.9673513662353153</v>
       </c>
       <c r="D10">
-        <v>1.026763799670111</v>
+        <v>0.9930592493832688</v>
       </c>
       <c r="E10">
-        <v>1.024909958425509</v>
+        <v>0.9776873342195621</v>
       </c>
       <c r="F10">
-        <v>1.030425947166272</v>
+        <v>0.9735842015068304</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030046650855593</v>
+        <v>1.032449720607344</v>
       </c>
       <c r="J10">
-        <v>1.0275302853801</v>
+        <v>0.9969230123767204</v>
       </c>
       <c r="K10">
-        <v>1.03024272595997</v>
+        <v>1.007554962317265</v>
       </c>
       <c r="L10">
-        <v>1.028395654055341</v>
+        <v>0.9924714857899763</v>
       </c>
       <c r="M10">
-        <v>1.03389158010796</v>
+        <v>0.9884473627305556</v>
       </c>
       <c r="N10">
-        <v>1.028989496244711</v>
+        <v>0.998338757402963</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020349974927385</v>
+        <v>0.9632561995039078</v>
       </c>
       <c r="D11">
-        <v>1.026210778149663</v>
+        <v>0.9900852005528209</v>
       </c>
       <c r="E11">
-        <v>1.024202961615616</v>
+        <v>0.9740299342751956</v>
       </c>
       <c r="F11">
-        <v>1.029560583534112</v>
+        <v>0.969055441293262</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029897682249558</v>
+        <v>1.031350320088884</v>
       </c>
       <c r="J11">
-        <v>1.027025394884486</v>
+        <v>0.9942416869164462</v>
       </c>
       <c r="K11">
-        <v>1.029814555434935</v>
+        <v>1.005196549386417</v>
       </c>
       <c r="L11">
-        <v>1.027814356872064</v>
+        <v>0.9894588084989415</v>
       </c>
       <c r="M11">
-        <v>1.033151724393654</v>
+        <v>0.984585512517866</v>
       </c>
       <c r="N11">
-        <v>1.028483888746681</v>
+        <v>0.9956536241529831</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02007364460503</v>
+        <v>0.9617128946709601</v>
       </c>
       <c r="D12">
-        <v>1.026005304679156</v>
+        <v>0.9889654158072196</v>
       </c>
       <c r="E12">
-        <v>1.023940399388156</v>
+        <v>0.9726531544246019</v>
       </c>
       <c r="F12">
-        <v>1.029239144172345</v>
+        <v>0.9673488287948079</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029842076125353</v>
+        <v>1.030934105166011</v>
       </c>
       <c r="J12">
-        <v>1.026837741920234</v>
+        <v>0.99323091799625</v>
       </c>
       <c r="K12">
-        <v>1.029655338176648</v>
+        <v>1.004307119096323</v>
       </c>
       <c r="L12">
-        <v>1.027598376996463</v>
+        <v>0.9883237246901988</v>
       </c>
       <c r="M12">
-        <v>1.032876807456868</v>
+        <v>0.9831294978889535</v>
       </c>
       <c r="N12">
-        <v>1.028295969293696</v>
+        <v>0.9946414198249837</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020132919511595</v>
+        <v>0.9620449676003503</v>
       </c>
       <c r="D13">
-        <v>1.026049382004774</v>
+        <v>0.9892063119066521</v>
       </c>
       <c r="E13">
-        <v>1.023996717726187</v>
+        <v>0.9729493248467987</v>
       </c>
       <c r="F13">
-        <v>1.029308094263726</v>
+        <v>0.9677160371282683</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029854016164388</v>
+        <v>1.031023746578322</v>
       </c>
       <c r="J13">
-        <v>1.026877999296578</v>
+        <v>0.9934484169214302</v>
       </c>
       <c r="K13">
-        <v>1.029689498775783</v>
+        <v>1.004498525184828</v>
       </c>
       <c r="L13">
-        <v>1.027644708151711</v>
+        <v>0.9885679471021718</v>
       </c>
       <c r="M13">
-        <v>1.032935782703851</v>
+        <v>0.9834428175347485</v>
       </c>
       <c r="N13">
-        <v>1.028336283840132</v>
+        <v>0.9948592276235846</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020327133876767</v>
+        <v>0.9631290908878664</v>
       </c>
       <c r="D14">
-        <v>1.026193794806015</v>
+        <v>0.9899929522202918</v>
       </c>
       <c r="E14">
-        <v>1.024181257168929</v>
+        <v>0.9739165089348779</v>
       </c>
       <c r="F14">
-        <v>1.029534013368402</v>
+        <v>0.968914880786651</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029893091391069</v>
+        <v>1.031316078152525</v>
       </c>
       <c r="J14">
-        <v>1.027009885765238</v>
+        <v>0.9941584440456608</v>
       </c>
       <c r="K14">
-        <v>1.029801398072911</v>
+        <v>1.005123307175306</v>
       </c>
       <c r="L14">
-        <v>1.027796505141568</v>
+        <v>0.9893653155040665</v>
       </c>
       <c r="M14">
-        <v>1.033129001758393</v>
+        <v>0.9844656062403859</v>
       </c>
       <c r="N14">
-        <v>1.028468357602705</v>
+        <v>0.9955702630677733</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020446792521311</v>
+        <v>0.9637940697886852</v>
       </c>
       <c r="D15">
-        <v>1.026282764782581</v>
+        <v>0.9904755988838947</v>
       </c>
       <c r="E15">
-        <v>1.024294964325012</v>
+        <v>0.974509966226933</v>
       </c>
       <c r="F15">
-        <v>1.029673208875705</v>
+        <v>0.9696502379499615</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029917130806397</v>
+        <v>1.031495140853953</v>
       </c>
       <c r="J15">
-        <v>1.027091130221042</v>
+        <v>0.9945939246052578</v>
       </c>
       <c r="K15">
-        <v>1.029870319631845</v>
+        <v>1.005506454207368</v>
       </c>
       <c r="L15">
-        <v>1.027890024271757</v>
+        <v>0.9898544431905006</v>
       </c>
       <c r="M15">
-        <v>1.033248036870955</v>
+        <v>0.9850928795192317</v>
       </c>
       <c r="N15">
-        <v>1.028549717434955</v>
+        <v>0.996006362059715</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021143209348719</v>
+        <v>0.9676201229767555</v>
       </c>
       <c r="D16">
-        <v>1.026800493958978</v>
+        <v>0.9932545629953473</v>
       </c>
       <c r="E16">
-        <v>1.024956886239272</v>
+        <v>0.9779275707774643</v>
       </c>
       <c r="F16">
-        <v>1.030483377970121</v>
+        <v>0.9738814301323566</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030056499200577</v>
+        <v>1.032521605998511</v>
       </c>
       <c r="J16">
-        <v>1.027563777334712</v>
+        <v>0.9970989388984397</v>
       </c>
       <c r="K16">
-        <v>1.030271117619957</v>
+        <v>1.00770964648796</v>
       </c>
       <c r="L16">
-        <v>1.028434224436823</v>
+        <v>0.9926692349986508</v>
       </c>
       <c r="M16">
-        <v>1.0339406677657</v>
+        <v>0.9887007197667385</v>
       </c>
       <c r="N16">
-        <v>1.02902303576174</v>
+        <v>0.9985149337605224</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021580012085836</v>
+        <v>0.9699822146980387</v>
       </c>
       <c r="D17">
-        <v>1.027125151164205</v>
+        <v>0.9949718511114891</v>
       </c>
       <c r="E17">
-        <v>1.025372178673505</v>
+        <v>0.980040115279489</v>
       </c>
       <c r="F17">
-        <v>1.030991569862687</v>
+        <v>0.9764938644636362</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030143435829492</v>
+        <v>1.033151929538677</v>
       </c>
       <c r="J17">
-        <v>1.027860053814259</v>
+        <v>0.9986448934098735</v>
       </c>
       <c r="K17">
-        <v>1.030522215094061</v>
+        <v>1.009068620133011</v>
       </c>
       <c r="L17">
-        <v>1.028775480428284</v>
+        <v>0.9944074048450054</v>
       </c>
       <c r="M17">
-        <v>1.034374958082238</v>
+        <v>0.9909269885233453</v>
       </c>
       <c r="N17">
-        <v>1.029319732987872</v>
+        <v>1.000063083704686</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021834777421919</v>
+        <v>0.9713467946894929</v>
       </c>
       <c r="D18">
-        <v>1.027314482051774</v>
+        <v>0.9959644779493237</v>
       </c>
       <c r="E18">
-        <v>1.025614443126939</v>
+        <v>0.981261447672284</v>
       </c>
       <c r="F18">
-        <v>1.031287988331303</v>
+        <v>0.9780031622465345</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030193969595375</v>
+        <v>1.033514827856316</v>
       </c>
       <c r="J18">
-        <v>1.028032794124933</v>
+        <v>0.9995377668559783</v>
       </c>
       <c r="K18">
-        <v>1.030668563530098</v>
+        <v>1.009853235248917</v>
       </c>
       <c r="L18">
-        <v>1.028974491204859</v>
+        <v>0.9954116669739885</v>
       </c>
       <c r="M18">
-        <v>1.034628208538501</v>
+        <v>0.9922127086722645</v>
       </c>
       <c r="N18">
-        <v>1.0294927186096</v>
+        <v>1.000957225133498</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021921643439301</v>
+        <v>0.9718098868773591</v>
       </c>
       <c r="D19">
-        <v>1.027379032866259</v>
+        <v>0.9963014314485038</v>
       </c>
       <c r="E19">
-        <v>1.02569705439965</v>
+        <v>0.9816760794456225</v>
       </c>
       <c r="F19">
-        <v>1.0313890592318</v>
+        <v>0.9785153842124711</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030211170643616</v>
+        <v>1.033637771035483</v>
       </c>
       <c r="J19">
-        <v>1.0280916817918</v>
+        <v>0.9998407379408439</v>
       </c>
       <c r="K19">
-        <v>1.030718445502041</v>
+        <v>1.010119425810847</v>
       </c>
       <c r="L19">
-        <v>1.029042342305345</v>
+        <v>0.9957524980616383</v>
       </c>
       <c r="M19">
-        <v>1.034714549652737</v>
+        <v>0.9926489717370449</v>
       </c>
       <c r="N19">
-        <v>1.029551689903709</v>
+        <v>1.001260626472055</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021533148777545</v>
+        <v>0.9697301589528909</v>
       </c>
       <c r="D20">
-        <v>1.027090322261634</v>
+        <v>0.9947885435664631</v>
       </c>
       <c r="E20">
-        <v>1.02532761848401</v>
+        <v>0.9798145927464486</v>
       </c>
       <c r="F20">
-        <v>1.030937045830918</v>
+        <v>0.976215085460021</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030134126443914</v>
+        <v>1.03308479674256</v>
       </c>
       <c r="J20">
-        <v>1.027828273682101</v>
+        <v>0.9984799494389218</v>
       </c>
       <c r="K20">
-        <v>1.030495286348311</v>
+        <v>1.008923653348825</v>
       </c>
       <c r="L20">
-        <v>1.028738870833708</v>
+        <v>0.9942219138600685</v>
       </c>
       <c r="M20">
-        <v>1.034328369449033</v>
+        <v>0.9906894673279579</v>
       </c>
       <c r="N20">
-        <v>1.02928790772428</v>
+        <v>0.999897905494376</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020269943263861</v>
+        <v>0.9628104683608453</v>
       </c>
       <c r="D21">
-        <v>1.026151270401866</v>
+        <v>0.9897617305871217</v>
       </c>
       <c r="E21">
-        <v>1.024126913588722</v>
+        <v>0.9736322114223213</v>
       </c>
       <c r="F21">
-        <v>1.029467485975322</v>
+        <v>0.9685625398488626</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029881592236041</v>
+        <v>1.031230213800491</v>
       </c>
       <c r="J21">
-        <v>1.026971051645011</v>
+        <v>0.9939497752110705</v>
       </c>
       <c r="K21">
-        <v>1.029768451371889</v>
+        <v>1.004939701325773</v>
       </c>
       <c r="L21">
-        <v>1.027751806380705</v>
+        <v>0.9891309617513031</v>
       </c>
       <c r="M21">
-        <v>1.033072106383863</v>
+        <v>0.9841650274841502</v>
       </c>
       <c r="N21">
-        <v>1.028429468333572</v>
+        <v>0.9953612978995031</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019475575843263</v>
+        <v>0.9583306360740649</v>
       </c>
       <c r="D22">
-        <v>1.025560523285968</v>
+        <v>0.9865133491425034</v>
       </c>
       <c r="E22">
-        <v>1.023372259242807</v>
+        <v>0.9696387949479937</v>
       </c>
       <c r="F22">
-        <v>1.028543486457861</v>
+        <v>0.9636087886044291</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029721236963201</v>
+        <v>1.030018531488882</v>
       </c>
       <c r="J22">
-        <v>1.026431421271724</v>
+        <v>0.9910153002680464</v>
       </c>
       <c r="K22">
-        <v>1.029310444814105</v>
+        <v>1.002356798780569</v>
       </c>
       <c r="L22">
-        <v>1.027130850947126</v>
+        <v>0.985836699652279</v>
       </c>
       <c r="M22">
-        <v>1.032281655159392</v>
+        <v>0.9799373565680022</v>
       </c>
       <c r="N22">
-        <v>1.027889071623259</v>
+        <v>0.9924226556654706</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.019896698848025</v>
+        <v>0.9607182517855529</v>
       </c>
       <c r="D23">
-        <v>1.025873720697921</v>
+        <v>0.9882440298596135</v>
       </c>
       <c r="E23">
-        <v>1.023772289895949</v>
+        <v>0.9717662823451192</v>
       </c>
       <c r="F23">
-        <v>1.029033319675924</v>
+        <v>0.9662489564848875</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029806393873114</v>
+        <v>1.030665334082189</v>
       </c>
       <c r="J23">
-        <v>1.026717552450714</v>
+        <v>0.9925794169400045</v>
       </c>
       <c r="K23">
-        <v>1.029553339275255</v>
+        <v>1.003733722724543</v>
       </c>
       <c r="L23">
-        <v>1.02746006452233</v>
+        <v>0.9875922624685542</v>
       </c>
       <c r="M23">
-        <v>1.032700744825745</v>
+        <v>0.982190931641292</v>
       </c>
       <c r="N23">
-        <v>1.028175609141343</v>
+        <v>0.9939889935625097</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021554324333112</v>
+        <v>0.9698440927408543</v>
       </c>
       <c r="D24">
-        <v>1.027106060055066</v>
+        <v>0.9948714002194213</v>
       </c>
       <c r="E24">
-        <v>1.025347753218218</v>
+        <v>0.9799165302039563</v>
       </c>
       <c r="F24">
-        <v>1.03096168289715</v>
+        <v>0.9763410983494749</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030138333494843</v>
+        <v>1.033115145840199</v>
       </c>
       <c r="J24">
-        <v>1.027842633980359</v>
+        <v>0.9985545078187761</v>
       </c>
       <c r="K24">
-        <v>1.030507454636685</v>
+        <v>1.008989182421339</v>
       </c>
       <c r="L24">
-        <v>1.028755413250985</v>
+        <v>0.9943057587917665</v>
       </c>
       <c r="M24">
-        <v>1.034349421043351</v>
+        <v>0.9907968324594826</v>
       </c>
       <c r="N24">
-        <v>1.02930228841581</v>
+        <v>0.9999725697556817</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023477350669074</v>
+        <v>0.9799209241050131</v>
       </c>
       <c r="D25">
-        <v>1.028534703451409</v>
+        <v>1.002210133530733</v>
       </c>
       <c r="E25">
-        <v>1.027177225766796</v>
+        <v>0.9889510257440852</v>
       </c>
       <c r="F25">
-        <v>1.033199400394412</v>
+        <v>0.9874886987741192</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03051667064221</v>
+        <v>1.035772452257513</v>
       </c>
       <c r="J25">
-        <v>1.029145377459356</v>
+        <v>1.005143453295104</v>
       </c>
       <c r="K25">
-        <v>1.031610241926529</v>
+        <v>1.014774236635668</v>
       </c>
       <c r="L25">
-        <v>1.030257102863308</v>
+        <v>1.001723319047199</v>
       </c>
       <c r="M25">
-        <v>1.036260125115098</v>
+        <v>1.000284392012226</v>
       </c>
       <c r="N25">
-        <v>1.030606881939973</v>
+        <v>1.006570872290348</v>
       </c>
     </row>
   </sheetData>
